--- a/Jogos_do_Dia/2023-11-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,61 +682,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z2" t="n">
         <v>2.33</v>
@@ -821,61 +821,61 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="Z3" t="n">
         <v>2</v>
@@ -960,58 +960,58 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="L4" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.46</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.36</v>
       </c>
       <c r="Y4" t="n">
         <v>1.48</v>
@@ -1032,43 +1032,43 @@
         <v>3.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.51</v>
@@ -1135,10 +1135,10 @@
         <v>2.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
         <v>1.95</v>
@@ -1204,10 +1204,10 @@
         <v>1.34</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
@@ -1244,16 +1244,16 @@
         <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.95</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>1.19</v>
@@ -1377,46 +1377,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>1.95</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.4</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.45</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1449,13 +1449,13 @@
         <v>3.02</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="AH7" t="n">
         <v>1.2</v>
@@ -1519,19 +1519,19 @@
         <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V8" t="n">
         <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>3.48</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="L9" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>1.67</v>
       </c>
       <c r="T9" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>2.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>3.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
         <v>1.6</v>
@@ -1866,43 +1866,43 @@
         <v>2.99</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.44</v>
@@ -718,10 +718,10 @@
         <v>2.93</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -739,10 +739,10 @@
         <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
         <v>1.87</v>
@@ -754,43 +754,43 @@
         <v>3.51</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>1.95</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -893,43 +893,43 @@
         <v>3.34</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
         <v>1.91</v>
@@ -972,10 +972,10 @@
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L4" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.57</v>
@@ -990,16 +990,16 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S4" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1032,13 +1032,13 @@
         <v>3.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="n">
         <v>1.22</v>
@@ -1108,13 +1108,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="L5" t="n">
-        <v>3.53</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.51</v>
@@ -1135,10 +1135,10 @@
         <v>2.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>1.95</v>
@@ -1247,37 +1247,37 @@
         <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
         <v>1.95</v>
@@ -1310,19 +1310,19 @@
         <v>2.99</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.3</v>
@@ -1377,46 +1377,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
         <v>1.95</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="K7" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1519,37 +1519,37 @@
         <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="S8" t="n">
         <v>1.83</v>
@@ -1558,19 +1558,19 @@
         <v>2.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Z8" t="n">
         <v>2.06</v>
@@ -1588,43 +1588,43 @@
         <v>3.48</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AL8" t="n">
         <v>1.83</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>3.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1.6</v>
